--- a/Week4/Day2/sol-esercizi-day2-schillaci.xlsx
+++ b/Week4/Day2/sol-esercizi-day2-schillaci.xlsx
@@ -2,22 +2,40 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/giuseppe/Documents/GitHub/epicode-data-analyst/Week4/Day2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D4C739FF-2D99-4C4A-A47E-F9E63CAB8489}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A008A44-63A6-434A-BDEB-306095CE343C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1120" yWindow="500" windowWidth="26840" windowHeight="14840" activeTab="1" xr2:uid="{A055A119-9880-5944-8331-5271FE158BC9}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16340" activeTab="5" xr2:uid="{A055A119-9880-5944-8331-5271FE158BC9}"/>
   </bookViews>
   <sheets>
     <sheet name="sol-eser-1" sheetId="1" r:id="rId1"/>
     <sheet name="sol-eser-2" sheetId="2" r:id="rId2"/>
+    <sheet name="altro1-formule" sheetId="3" r:id="rId3"/>
+    <sheet name="altro2-formule-date" sheetId="6" r:id="rId4"/>
+    <sheet name="tabella-pivot-tipo-contratto" sheetId="5" r:id="rId5"/>
+    <sheet name="tabella-pivot-grafico" sheetId="7" r:id="rId6"/>
   </sheets>
+  <definedNames>
+    <definedName name="FiltroDati_Settore">#N/A</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
+  <pivotCaches>
+    <pivotCache cacheId="10" r:id="rId7"/>
+  </pivotCaches>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
+      <x14:slicerCaches>
+        <x14:slicerCache r:id="rId8"/>
+      </x14:slicerCaches>
+    </ext>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -37,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="64">
   <si>
     <t>Cognome</t>
   </si>
@@ -170,15 +188,77 @@
   <si>
     <t>incentivo2_altra soluzione</t>
   </si>
+  <si>
+    <t>Somma Incentivi  per Settore</t>
+  </si>
+  <si>
+    <t>Media dei salari per settore</t>
+  </si>
+  <si>
+    <t>Somma Personale per Settore</t>
+  </si>
+  <si>
+    <t>Media stipendi per settore &gt;10 anni di lavoro</t>
+  </si>
+  <si>
+    <t>Media stipendi per settore &gt;20 anni di lavoro</t>
+  </si>
+  <si>
+    <t>Media stipendi per settore &gt;1 anno di lavoro</t>
+  </si>
+  <si>
+    <t>Etichette di riga</t>
+  </si>
+  <si>
+    <t>Totale complessivo</t>
+  </si>
+  <si>
+    <t>Media di Stipendio</t>
+  </si>
+  <si>
+    <t>(Tutto)</t>
+  </si>
+  <si>
+    <t>range</t>
+  </si>
+  <si>
+    <t>Stage</t>
+  </si>
+  <si>
+    <t>Apprendistato</t>
+  </si>
+  <si>
+    <t>Indeterminato</t>
+  </si>
+  <si>
+    <t>Differenza Giorni</t>
+  </si>
+  <si>
+    <t>Conteggio di range</t>
+  </si>
+  <si>
+    <t>contratto</t>
+  </si>
+  <si>
+    <t>Anno</t>
+  </si>
+  <si>
+    <t>giorno</t>
+  </si>
+  <si>
+    <t>mese</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="_-[$€-2]\ * #,##0.00_-;\-[$€-2]\ * #,##0.00_-;_-[$€-2]\ * &quot;-&quot;??_-"/>
+    <numFmt numFmtId="171" formatCode="#,##0.00\ &quot;€&quot;"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0.00\ [$€-410]_-;\-* #,##0.00\ [$€-410]_-;_-* &quot;-&quot;??\ [$€-410]_-;_-@_-"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -205,8 +285,29 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -219,8 +320,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4B084"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -267,12 +374,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -290,12 +421,140 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Euro" xfId="1" xr:uid="{4B407CCC-6928-4843-A9E5-E233EC5E5F31}"/>
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="36">
+    <dxf>
+      <numFmt numFmtId="177" formatCode="_-* #,##0.00\ [$€-410]_-;\-* #,##0.00\ [$€-410]_-;_-* &quot;-&quot;??\ [$€-410]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="177" formatCode="_-* #,##0.00\ [$€-410]_-;\-* #,##0.00\ [$€-410]_-;_-* &quot;-&quot;??\ [$€-410]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="177" formatCode="_-* #,##0.00\ [$€-410]_-;\-* #,##0.00\ [$€-410]_-;_-* &quot;-&quot;??\ [$€-410]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="177" formatCode="_-* #,##0.00\ [$€-410]_-;\-* #,##0.00\ [$€-410]_-;_-* &quot;-&quot;??\ [$€-410]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="177" formatCode="_-* #,##0.00\ [$€-410]_-;\-* #,##0.00\ [$€-410]_-;_-* &quot;-&quot;??\ [$€-410]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="177" formatCode="_-* #,##0.00\ [$€-410]_-;\-* #,##0.00\ [$€-410]_-;_-* &quot;-&quot;??\ [$€-410]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="177" formatCode="_-* #,##0.00\ [$€-410]_-;\-* #,##0.00\ [$€-410]_-;_-* &quot;-&quot;??\ [$€-410]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="177" formatCode="_-* #,##0.00\ [$€-410]_-;\-* #,##0.00\ [$€-410]_-;_-* &quot;-&quot;??\ [$€-410]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="177" formatCode="_-* #,##0.00\ [$€-410]_-;\-* #,##0.00\ [$€-410]_-;_-* &quot;-&quot;??\ [$€-410]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="177" formatCode="_-* #,##0.00\ [$€-410]_-;\-* #,##0.00\ [$€-410]_-;_-* &quot;-&quot;??\ [$€-410]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="177" formatCode="_-* #,##0.00\ [$€-410]_-;\-* #,##0.00\ [$€-410]_-;_-* &quot;-&quot;??\ [$€-410]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="177" formatCode="_-* #,##0.00\ [$€-410]_-;\-* #,##0.00\ [$€-410]_-;_-* &quot;-&quot;??\ [$€-410]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="177" formatCode="_-* #,##0.00\ [$€-410]_-;\-* #,##0.00\ [$€-410]_-;_-* &quot;-&quot;??\ [$€-410]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="177" formatCode="_-* #,##0.00\ [$€-410]_-;\-* #,##0.00\ [$€-410]_-;_-* &quot;-&quot;??\ [$€-410]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="177" formatCode="_-* #,##0.00\ [$€-410]_-;\-* #,##0.00\ [$€-410]_-;_-* &quot;-&quot;??\ [$€-410]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="177" formatCode="_-* #,##0.00\ [$€-410]_-;\-* #,##0.00\ [$€-410]_-;_-* &quot;-&quot;??\ [$€-410]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="177" formatCode="_-* #,##0.00\ [$€-410]_-;\-* #,##0.00\ [$€-410]_-;_-* &quot;-&quot;??\ [$€-410]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="177" formatCode="_-* #,##0.00\ [$€-410]_-;\-* #,##0.00\ [$€-410]_-;_-* &quot;-&quot;??\ [$€-410]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="177" formatCode="_-* #,##0.00\ [$€-410]_-;\-* #,##0.00\ [$€-410]_-;_-* &quot;-&quot;??\ [$€-410]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="177" formatCode="_-* #,##0.00\ [$€-410]_-;\-* #,##0.00\ [$€-410]_-;_-* &quot;-&quot;??\ [$€-410]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="177" formatCode="_-* #,##0.00\ [$€-410]_-;\-* #,##0.00\ [$€-410]_-;_-* &quot;-&quot;??\ [$€-410]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="177" formatCode="_-* #,##0.00\ [$€-410]_-;\-* #,##0.00\ [$€-410]_-;_-* &quot;-&quot;??\ [$€-410]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="177" formatCode="_-* #,##0.00\ [$€-410]_-;\-* #,##0.00\ [$€-410]_-;_-* &quot;-&quot;??\ [$€-410]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="177" formatCode="_-* #,##0.00\ [$€-410]_-;\-* #,##0.00\ [$€-410]_-;_-* &quot;-&quot;??\ [$€-410]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="177" formatCode="_-* #,##0.00\ [$€-410]_-;\-* #,##0.00\ [$€-410]_-;_-* &quot;-&quot;??\ [$€-410]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="177" formatCode="_-* #,##0.00\ [$€-410]_-;\-* #,##0.00\ [$€-410]_-;_-* &quot;-&quot;??\ [$€-410]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="170" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="170" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="170" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="170" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -306,6 +565,5431 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.17865273730547462"/>
+          <c:y val="0.17168999708369789"/>
+          <c:w val="0.82134733158355211"/>
+          <c:h val="0.72094889180519106"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'altro1-formule'!$Q$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Media dei salari per settore</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'altro1-formule'!$N$5:$N$8</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Produzione</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Amministrazione</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Direzione</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Commerciale</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'altro1-formule'!$Q$5:$Q$8</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00\ "€"</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1463.17</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1486.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3478.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2542.33</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3578-A942-A596-634ADA1D1E82}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="392151088"/>
+        <c:axId val="392122304"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="392151088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="392122304"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="392122304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0.00\ &quot;€&quot;" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="392151088"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT"/>
+              <a:t>Media salari</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="it-IT" baseline="0"/>
+              <a:t> per anni di lavoro e settore</a:t>
+            </a:r>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12902777777777777"/>
+          <c:y val="0.17168999708369789"/>
+          <c:w val="0.84597222222222224"/>
+          <c:h val="0.46580672207640711"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'altro1-formule'!$O$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Media stipendi per settore &gt;1 anno di lavoro</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'altro1-formule'!$N$12:$N$15</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Produzione</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Amministrazione</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Direzione</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Commerciale</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'altro1-formule'!$O$12:$O$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1463.1666666666667</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1486.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3478.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2542.3333333333335</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B5FB-3543-BF2E-77A5EFD42F5A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'altro1-formule'!$P$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Media stipendi per settore &gt;10 anni di lavoro</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'altro1-formule'!$N$12:$N$15</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Produzione</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Amministrazione</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Direzione</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Commerciale</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'altro1-formule'!$P$12:$P$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1734.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1595.3333333333333</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>3478.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2542.3333333333335</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B5FB-3543-BF2E-77A5EFD42F5A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'altro1-formule'!$Q$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Media stipendi per settore &gt;20 anni di lavoro</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'altro1-formule'!$N$12:$N$15</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Produzione</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Amministrazione</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Direzione</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Commerciale</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'altro1-formule'!$Q$12:$Q$15</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00\ "€"</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1710</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1599</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3478.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B5FB-3543-BF2E-77A5EFD42F5A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="669751136"/>
+        <c:axId val="669713792"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="669751136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="669713792"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="669713792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="669751136"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[sol-esercizi-day2-schillaci.xlsx]tabella-pivot-tipo-contratto!Tabella pivot2</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Numero di stagisti</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> per settore</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:delete val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:delete val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:delete val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:delete val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:delete val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:delete val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:delete val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="7"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:delete val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="8"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:delete val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="9"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:delete val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="10"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:delete val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="11"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:delete val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12368044619422572"/>
+          <c:y val="0.1439122193059201"/>
+          <c:w val="0.76136898512685913"/>
+          <c:h val="0.72094889180519106"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'tabella-pivot-tipo-contratto'!$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Totale</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'tabella-pivot-tipo-contratto'!$A$9:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Produzione</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'tabella-pivot-tipo-contratto'!$B$9:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-EBBE-9848-AD4A-545A8DF6D327}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="80571775"/>
+        <c:axId val="80563487"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="80571775"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="80563487"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="80563487"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="80571775"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[sol-esercizi-day2-schillaci.xlsx]tabella-pivot-tipo-contratto!Tabella pivot7</c:name>
+    <c:fmtId val="1"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Numero</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> di apprendistati per settore</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.9347112860892388E-2"/>
+          <c:y val="0.19483814523184603"/>
+          <c:w val="0.77403565179352585"/>
+          <c:h val="0.72094889180519106"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'tabella-pivot-tipo-contratto'!$B$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Totale</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'tabella-pivot-tipo-contratto'!$A$18:$A$21</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Amministrazione</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Commerciale</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Produzione</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'tabella-pivot-tipo-contratto'!$B$18:$B$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DDD5-CA41-9D80-D7E72F0C003E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="669395040"/>
+        <c:axId val="669396688"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="669395040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="669396688"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="669396688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="669395040"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[sol-esercizi-day2-schillaci.xlsx]tabella-pivot-tipo-contratto!Tabella pivot8</c:name>
+    <c:fmtId val="1"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Numero di indeterminati per</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> settore</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'tabella-pivot-tipo-contratto'!$B$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Totale</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'tabella-pivot-tipo-contratto'!$A$29:$A$33</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Amministrazione</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Commerciale</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Direzione</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Produzione</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'tabella-pivot-tipo-contratto'!$B$29:$B$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-300E-B94B-8655-3D7CECF27473}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="391229616"/>
+        <c:axId val="391231264"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="391229616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="391231264"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="391231264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="391229616"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[sol-esercizi-day2-schillaci.xlsx]tabella-pivot-grafico!Tabella pivot9</c:name>
+    <c:fmtId val="15"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'tabella-pivot-grafico'!$B$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Conteggio di range</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'tabella-pivot-grafico'!$A$30:$A$34</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Amministrazione</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Commerciale</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Direzione</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Produzione</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'tabella-pivot-grafico'!$B$30:$B$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7B5B-E948-A13E-E53691C8AE0C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'tabella-pivot-grafico'!$C$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Media di Stipendio</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'tabella-pivot-grafico'!$A$30:$A$34</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Amministrazione</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Commerciale</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Direzione</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Produzione</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'tabella-pivot-grafico'!$C$30:$C$34</c:f>
+              <c:numCache>
+                <c:formatCode>_-* #,##0.00\ [$€-410]_-;\-* #,##0.00\ [$€-410]_-;_-* "-"??\ [$€-410]_-;_-@_-</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1486.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2542.3333333333335</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3478.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1463.1666666666667</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7B5B-E948-A13E-E53691C8AE0C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="80564255"/>
+        <c:axId val="80670287"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="80564255"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="80670287"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="80670287"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="80564255"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -526,6 +6210,1197 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>1524000</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Grafico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6CE41AE-9F38-BDD4-ACCA-8C9853BD3F9F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>2260600</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>673100</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Grafico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78752EBC-A4FB-E69F-4331-1E1A41BB8E89}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>527050</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Grafico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{720A9362-F161-B0D1-FE31-5E43C934AE30}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>450850</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Grafico 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDBD1A9C-FDF7-087B-1E7B-556EDA95FB21}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>482600</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Grafico 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5019E7F1-2A44-BFD7-5031-61E1208AA816}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Grafico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{300DEED1-C244-BB18-671C-DE0530257B98}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1028700</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="5" name="Settore">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E28670C7-2A36-6622-1DFF-B8653FCB5510}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Settore"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1028700" y="1143000"/>
+              <a:ext cx="1828800" cy="2755900"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="it-IT" sz="1100"/>
+                <a:t>Questa forma rappresenta un filtro dei dati. I filtri dei dati sono supportati in Excel 2010 o versione successiva.
+Se la forma è stata modificata in una versione precedente di Excel o se la cartella di lavoro è stata salvata in Excel 2003 o versioni precedenti, non è possibile usare il filtro dei dati.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Microsoft Office User" refreshedDate="44852.662267361113" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="28" xr:uid="{84EEAC65-BE8D-EB42-8762-155636C5D8F0}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:J29" sheet="altro1-formule"/>
+  </cacheSource>
+  <cacheFields count="10">
+    <cacheField name="Cognome" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Dt_nascita" numFmtId="14">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="1956-06-05T00:00:00" maxDate="2000-01-16T00:00:00"/>
+    </cacheField>
+    <cacheField name="Dt_assunzione" numFmtId="14">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="1987-04-05T00:00:00" maxDate="2020-09-13T00:00:00"/>
+    </cacheField>
+    <cacheField name="Settore" numFmtId="0">
+      <sharedItems count="4">
+        <s v="Produzione"/>
+        <s v="Amministrazione"/>
+        <s v="Direzione"/>
+        <s v="Commerciale"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Stipendio" numFmtId="164">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1230" maxValue="3680"/>
+    </cacheField>
+    <cacheField name="Età" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="22" maxValue="66"/>
+    </cacheField>
+    <cacheField name="range" numFmtId="0">
+      <sharedItems count="3">
+        <s v="Indeterminato"/>
+        <s v="Stage"/>
+        <s v="Apprendistato"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Anz_lavoro" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2" maxValue="35"/>
+    </cacheField>
+    <cacheField name="incentivo 1" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="200" count="3">
+        <n v="0"/>
+        <n v="100"/>
+        <n v="200"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="incentivo 2" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="50" maxValue="90" count="3">
+        <n v="50"/>
+        <n v="70"/>
+        <n v="90"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition pivotCacheId="1834822876"/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="28">
+  <r>
+    <s v="Dipendende 1"/>
+    <d v="1985-05-04T00:00:00"/>
+    <d v="2014-06-06T00:00:00"/>
+    <x v="0"/>
+    <n v="1676"/>
+    <n v="37"/>
+    <x v="0"/>
+    <n v="8"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Dipendende 2"/>
+    <d v="1997-12-12T00:00:00"/>
+    <d v="2019-01-01T00:00:00"/>
+    <x v="0"/>
+    <n v="1252"/>
+    <n v="24"/>
+    <x v="1"/>
+    <n v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Dipendende 3"/>
+    <d v="1983-12-24T00:00:00"/>
+    <d v="2008-01-06T00:00:00"/>
+    <x v="1"/>
+    <n v="1650"/>
+    <n v="38"/>
+    <x v="0"/>
+    <n v="14"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Dipendende 4"/>
+    <d v="1990-02-02T00:00:00"/>
+    <d v="2020-01-01T00:00:00"/>
+    <x v="0"/>
+    <n v="1250"/>
+    <n v="32"/>
+    <x v="2"/>
+    <n v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Dipendende 5"/>
+    <d v="1956-06-05T00:00:00"/>
+    <d v="1987-04-05T00:00:00"/>
+    <x v="2"/>
+    <n v="3680"/>
+    <n v="66"/>
+    <x v="0"/>
+    <n v="35"/>
+    <x v="2"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Dipendende 6"/>
+    <d v="1985-01-06T00:00:00"/>
+    <d v="2010-05-05T00:00:00"/>
+    <x v="0"/>
+    <n v="1623"/>
+    <n v="37"/>
+    <x v="0"/>
+    <n v="12"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Dipendende 7"/>
+    <d v="1992-02-23T00:00:00"/>
+    <d v="2011-01-05T00:00:00"/>
+    <x v="3"/>
+    <n v="2584"/>
+    <n v="30"/>
+    <x v="2"/>
+    <n v="11"/>
+    <x v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Dipendende 8"/>
+    <d v="1994-03-06T00:00:00"/>
+    <d v="2017-10-14T00:00:00"/>
+    <x v="1"/>
+    <n v="1280"/>
+    <n v="28"/>
+    <x v="2"/>
+    <n v="5"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Dipendende 9"/>
+    <d v="1960-10-18T00:00:00"/>
+    <d v="1996-09-05T00:00:00"/>
+    <x v="0"/>
+    <n v="1750"/>
+    <n v="62"/>
+    <x v="0"/>
+    <n v="26"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Dipendende 10"/>
+    <d v="1989-12-26T00:00:00"/>
+    <d v="2013-01-05T00:00:00"/>
+    <x v="0"/>
+    <n v="1476"/>
+    <n v="32"/>
+    <x v="2"/>
+    <n v="9"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Dipendende 11"/>
+    <d v="1969-03-02T00:00:00"/>
+    <d v="1990-05-06T00:00:00"/>
+    <x v="2"/>
+    <n v="3277"/>
+    <n v="53"/>
+    <x v="0"/>
+    <n v="32"/>
+    <x v="2"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Dipendende 12"/>
+    <d v="1967-04-21T00:00:00"/>
+    <d v="1999-01-05T00:00:00"/>
+    <x v="0"/>
+    <n v="1670"/>
+    <n v="55"/>
+    <x v="0"/>
+    <n v="23"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Dipendende 13"/>
+    <d v="1990-01-21T00:00:00"/>
+    <d v="2017-05-01T00:00:00"/>
+    <x v="0"/>
+    <n v="1340"/>
+    <n v="32"/>
+    <x v="2"/>
+    <n v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Dipendende 14"/>
+    <d v="1976-11-25T00:00:00"/>
+    <d v="2000-01-06T00:00:00"/>
+    <x v="1"/>
+    <n v="1599"/>
+    <n v="45"/>
+    <x v="0"/>
+    <n v="22"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Dipendende 15"/>
+    <d v="1995-08-19T00:00:00"/>
+    <d v="2016-01-05T00:00:00"/>
+    <x v="0"/>
+    <n v="1414"/>
+    <n v="27"/>
+    <x v="2"/>
+    <n v="6"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Dipendende 16"/>
+    <d v="1986-11-20T00:00:00"/>
+    <d v="2011-01-05T00:00:00"/>
+    <x v="1"/>
+    <n v="1537"/>
+    <n v="35"/>
+    <x v="2"/>
+    <n v="11"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Dipendende 17"/>
+    <d v="1979-09-08T00:00:00"/>
+    <d v="2002-01-05T00:00:00"/>
+    <x v="0"/>
+    <n v="2152"/>
+    <n v="43"/>
+    <x v="0"/>
+    <n v="20"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Dipendende 18"/>
+    <d v="1994-04-07T00:00:00"/>
+    <d v="2020-01-01T00:00:00"/>
+    <x v="0"/>
+    <n v="1250"/>
+    <n v="28"/>
+    <x v="2"/>
+    <n v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Dipendende 19"/>
+    <d v="1992-02-20T00:00:00"/>
+    <d v="2017-04-01T00:00:00"/>
+    <x v="0"/>
+    <n v="1370"/>
+    <n v="30"/>
+    <x v="2"/>
+    <n v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Dipendende 20"/>
+    <d v="1990-05-03T00:00:00"/>
+    <d v="2018-06-01T00:00:00"/>
+    <x v="0"/>
+    <n v="1310"/>
+    <n v="32"/>
+    <x v="2"/>
+    <n v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Dipendende 21"/>
+    <d v="2000-01-15T00:00:00"/>
+    <d v="2020-09-12T00:00:00"/>
+    <x v="0"/>
+    <n v="1230"/>
+    <n v="22"/>
+    <x v="1"/>
+    <n v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Dipendende 22"/>
+    <d v="1983-04-09T00:00:00"/>
+    <d v="2008-01-06T00:00:00"/>
+    <x v="3"/>
+    <n v="2768"/>
+    <n v="39"/>
+    <x v="0"/>
+    <n v="14"/>
+    <x v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Dipendende 23"/>
+    <d v="1984-06-29T00:00:00"/>
+    <d v="2007-01-05T00:00:00"/>
+    <x v="3"/>
+    <n v="2275"/>
+    <n v="38"/>
+    <x v="0"/>
+    <n v="15"/>
+    <x v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Dipendende 24"/>
+    <d v="1994-01-28T00:00:00"/>
+    <d v="2017-01-05T00:00:00"/>
+    <x v="1"/>
+    <n v="1365"/>
+    <n v="28"/>
+    <x v="2"/>
+    <n v="5"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Dipendende 25"/>
+    <d v="1986-01-06T00:00:00"/>
+    <d v="2013-01-05T00:00:00"/>
+    <x v="0"/>
+    <n v="1414"/>
+    <n v="36"/>
+    <x v="0"/>
+    <n v="9"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Dipendende 26"/>
+    <d v="1993-03-05T00:00:00"/>
+    <d v="2014-06-05T00:00:00"/>
+    <x v="0"/>
+    <n v="1414"/>
+    <n v="29"/>
+    <x v="2"/>
+    <n v="8"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Dipendende 27"/>
+    <d v="1988-08-04T00:00:00"/>
+    <d v="2011-09-06T00:00:00"/>
+    <x v="0"/>
+    <n v="1476"/>
+    <n v="34"/>
+    <x v="2"/>
+    <n v="11"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Dipendende 28"/>
+    <d v="1995-08-24T00:00:00"/>
+    <d v="2018-02-01T00:00:00"/>
+    <x v="0"/>
+    <n v="1270"/>
+    <n v="27"/>
+    <x v="2"/>
+    <n v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C9149BCA-2E0F-504E-AF9F-12484B68CE5F}" name="Tabella pivot8" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valori" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="A28:B33" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="10">
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="1"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" dataField="1" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="4">
+        <item h="1" x="2"/>
+        <item x="0"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="6" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Conteggio di range" fld="6" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="2">
+    <chartFormat chart="0" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DA87EFC0-65E5-A548-9A7E-187A0D32214A}" name="Tabella pivot7" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valori" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+  <location ref="A17:B21" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="10">
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="1"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" dataField="1" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="4">
+        <item x="2"/>
+        <item h="1" x="0"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="6" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Conteggio di range" fld="6" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="2">
+    <chartFormat chart="0" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B6834404-7FB0-514E-B5E6-2522371F5358}" name="Tabella pivot2" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valori" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="15">
+  <location ref="A8:B10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="10">
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="1"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" dataField="1" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="4">
+        <item h="1" x="2"/>
+        <item h="1" x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="2">
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="6" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Conteggio di range" fld="6" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="6" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2B7A61EA-472A-3341-A5AE-6011F9BEA483}" name="Tabella pivot9" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valori" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="16">
+  <location ref="A29:C34" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="10">
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="1"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" dataField="1" showAll="0">
+      <items count="4">
+        <item x="2"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="6" hier="-1"/>
+  </pageFields>
+  <dataFields count="2">
+    <dataField name="Conteggio di range" fld="6" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="Media di Stipendio" fld="4" subtotal="average" baseField="0" baseItem="0" numFmtId="177"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="26">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <chartFormats count="6">
+    <chartFormat chart="0" format="6" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="17" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="12" format="19" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="13" format="12" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="15" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="15" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="FiltroDati_Settore" xr10:uid="{567C0EAC-D51B-B042-88BC-6886CBF9F094}" sourceName="Settore">
+  <pivotTables>
+    <pivotTable tabId="7" name="Tabella pivot9"/>
+  </pivotTables>
+  <data>
+    <tabular pivotCacheId="1834822876">
+      <items count="4">
+        <i x="1" s="1"/>
+        <i x="3" s="1"/>
+        <i x="2" s="1"/>
+        <i x="0" s="1"/>
+      </items>
+    </tabular>
+  </data>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
+<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
+  <slicer name="Settore" xr10:uid="{0AAFCBFE-6558-3046-A9C6-065013A43D88}" cache="FiltroDati_Settore" caption="Settore" rowHeight="251883"/>
+</slicers>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -828,7 +7703,7 @@
   <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+      <selection activeCell="O33" sqref="K28:O33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2036,8 +8911,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC9EF043-5082-D342-8070-935D7A4AB84A}">
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3124,4 +9999,2308 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC91F570-3D28-654F-9D2F-5920A0D66ECA}">
+  <dimension ref="A1:Q29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" customWidth="1"/>
+    <col min="6" max="6" width="5.83203125" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" customWidth="1"/>
+    <col min="9" max="12" width="13.6640625" customWidth="1"/>
+    <col min="14" max="14" width="18.5" customWidth="1"/>
+    <col min="15" max="15" width="39.83203125" customWidth="1"/>
+    <col min="16" max="16" width="42.6640625" customWidth="1"/>
+    <col min="17" max="17" width="39" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="3">
+        <v>31171</v>
+      </c>
+      <c r="C2" s="3">
+        <v>41796</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="4">
+        <v>1676</v>
+      </c>
+      <c r="F2" s="5">
+        <f t="shared" ref="F2:F29" ca="1" si="0">DATEDIF(B2,TODAY(),"y")</f>
+        <v>37</v>
+      </c>
+      <c r="G2" s="5" t="str">
+        <f ca="1">IF(F2&gt;35,"Indeterminato",IF(F2&gt;=25,"Apprendistato","Stage"))</f>
+        <v>Indeterminato</v>
+      </c>
+      <c r="H2" s="5">
+        <f ca="1">DATEDIF(C2,TODAY(),"y")</f>
+        <v>8</v>
+      </c>
+      <c r="I2" s="5">
+        <f ca="1">IF(AND(H2&gt;=10,H2&lt;20),100,IF(AND(H2&gt;=20),200,0))</f>
+        <v>0</v>
+      </c>
+      <c r="J2" s="5">
+        <f>IF(D2="Produzione",50,IF(D2="Amministrazione",70,90))</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="7">
+        <v>35776</v>
+      </c>
+      <c r="C3" s="7">
+        <v>43466</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="8">
+        <v>1252</v>
+      </c>
+      <c r="F3" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="G3" s="5" t="str">
+        <f ca="1">IF(F3&gt;35,"Indeterminato",IF(F3&gt;=25,"Apprendistato","Stage"))</f>
+        <v>Stage</v>
+      </c>
+      <c r="H3" s="9">
+        <f ca="1">DATEDIF(C3,TODAY(),"y")</f>
+        <v>3</v>
+      </c>
+      <c r="I3" s="5">
+        <f t="shared" ref="I3:I29" ca="1" si="1">IF(AND(H3&gt;=10,H3&lt;20),100,IF(AND(H3&gt;=20),200,0))</f>
+        <v>0</v>
+      </c>
+      <c r="J3" s="5">
+        <f t="shared" ref="J3:J29" si="2">IF(D3="Produzione",50,IF(D3="Amministrazione",70,90))</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="10">
+        <v>30674</v>
+      </c>
+      <c r="C4" s="10">
+        <v>39453</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="11">
+        <v>1650</v>
+      </c>
+      <c r="F4" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="G4" s="5" t="str">
+        <f t="shared" ref="G3:G29" ca="1" si="3">IF(F4&gt;35,"Indeterminato",IF(F4&gt;=25,"Apprendistato","Stage"))</f>
+        <v>Indeterminato</v>
+      </c>
+      <c r="H4" s="9">
+        <f ca="1">DATEDIF(C4,TODAY(),"y")</f>
+        <v>14</v>
+      </c>
+      <c r="I4" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="J4" s="5">
+        <f t="shared" si="2"/>
+        <v>70</v>
+      </c>
+      <c r="N4" t="s">
+        <v>3</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="7">
+        <v>32906</v>
+      </c>
+      <c r="C5" s="7">
+        <v>43831</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="8">
+        <v>1250</v>
+      </c>
+      <c r="F5" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="G5" s="5" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Apprendistato</v>
+      </c>
+      <c r="H5" s="9">
+        <f ca="1">DATEDIF(C5,TODAY(),"y")</f>
+        <v>2</v>
+      </c>
+      <c r="I5" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J5" s="5">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="N5" t="s">
+        <v>12</v>
+      </c>
+      <c r="O5">
+        <f>COUNTIF(D2:D29,"Produzione")</f>
+        <v>18</v>
+      </c>
+      <c r="P5" s="14">
+        <f ca="1">SUMIF(D2:D29,N5,I2:J29)</f>
+        <v>800</v>
+      </c>
+      <c r="Q5" s="14">
+        <f>ROUND(AVERAGEIF(D2:D29,N5,E2:E29),2)</f>
+        <v>1463.17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="10">
+        <v>20611</v>
+      </c>
+      <c r="C6" s="10">
+        <v>31872</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="11">
+        <v>3680</v>
+      </c>
+      <c r="F6" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>66</v>
+      </c>
+      <c r="G6" s="5" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Indeterminato</v>
+      </c>
+      <c r="H6" s="9">
+        <f ca="1">DATEDIF(C6,TODAY(),"y")</f>
+        <v>35</v>
+      </c>
+      <c r="I6" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="J6" s="5">
+        <f t="shared" si="2"/>
+        <v>90</v>
+      </c>
+      <c r="N6" t="s">
+        <v>15</v>
+      </c>
+      <c r="O6">
+        <f>COUNTIF(D2:D29,N6)</f>
+        <v>5</v>
+      </c>
+      <c r="P6" s="14">
+        <f ca="1">SUMIF(D2:D29,N6,I2:J29)</f>
+        <v>400</v>
+      </c>
+      <c r="Q6" s="14">
+        <f t="shared" ref="Q6:Q8" si="4">ROUND(AVERAGEIF(D3:D30,N6,E3:E30),2)</f>
+        <v>1486.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="10">
+        <v>31053</v>
+      </c>
+      <c r="C7" s="10">
+        <v>40303</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="11">
+        <v>1623</v>
+      </c>
+      <c r="F7" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="G7" s="5" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Indeterminato</v>
+      </c>
+      <c r="H7" s="9">
+        <v>12</v>
+      </c>
+      <c r="I7" s="5">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="J7" s="5">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="N7" t="s">
+        <v>18</v>
+      </c>
+      <c r="O7">
+        <f>COUNTIF(D2:D29,N7)</f>
+        <v>2</v>
+      </c>
+      <c r="P7" s="14">
+        <f ca="1">SUMIF(D2:D29,N7,I2:J29)</f>
+        <v>400</v>
+      </c>
+      <c r="Q7" s="14">
+        <f t="shared" si="4"/>
+        <v>3478.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="10">
+        <v>33657</v>
+      </c>
+      <c r="C8" s="10">
+        <v>40548</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="11">
+        <v>2584</v>
+      </c>
+      <c r="F8" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="G8" s="5" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Apprendistato</v>
+      </c>
+      <c r="H8" s="9">
+        <f ca="1">DATEDIF(C8,TODAY(),"y")</f>
+        <v>11</v>
+      </c>
+      <c r="I8" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="J8" s="5">
+        <f t="shared" si="2"/>
+        <v>90</v>
+      </c>
+      <c r="N8" t="s">
+        <v>21</v>
+      </c>
+      <c r="O8">
+        <f>COUNTIF(D2:D29,N8)</f>
+        <v>3</v>
+      </c>
+      <c r="P8" s="14">
+        <f ca="1">SUMIF(D2:D29,N8,I2:J29)</f>
+        <v>300</v>
+      </c>
+      <c r="Q8" s="14">
+        <f t="shared" si="4"/>
+        <v>2542.33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="10">
+        <v>34399</v>
+      </c>
+      <c r="C9" s="10">
+        <v>43022</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="11">
+        <v>1280</v>
+      </c>
+      <c r="F9" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="G9" s="5" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Apprendistato</v>
+      </c>
+      <c r="H9" s="9">
+        <f ca="1">DATEDIF(C9,TODAY(),"y")</f>
+        <v>5</v>
+      </c>
+      <c r="I9" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="5">
+        <f t="shared" si="2"/>
+        <v>70</v>
+      </c>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="14"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="10">
+        <v>22207</v>
+      </c>
+      <c r="C10" s="10">
+        <v>35313</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="11">
+        <v>1750</v>
+      </c>
+      <c r="F10" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="G10" s="5" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Indeterminato</v>
+      </c>
+      <c r="H10" s="9">
+        <f ca="1">DATEDIF(C10,TODAY(),"y")</f>
+        <v>26</v>
+      </c>
+      <c r="I10" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="J10" s="5">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="14"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="10">
+        <v>32868</v>
+      </c>
+      <c r="C11" s="10">
+        <v>41279</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="11">
+        <v>1476</v>
+      </c>
+      <c r="F11" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="G11" s="5" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Apprendistato</v>
+      </c>
+      <c r="H11" s="9">
+        <f ca="1">DATEDIF(C11,TODAY(),"y")</f>
+        <v>9</v>
+      </c>
+      <c r="I11" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J11" s="5">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="N11" t="s">
+        <v>3</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="10">
+        <v>25264</v>
+      </c>
+      <c r="C12" s="10">
+        <v>32999</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="11">
+        <v>3277</v>
+      </c>
+      <c r="F12" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="G12" s="5" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Indeterminato</v>
+      </c>
+      <c r="H12" s="9">
+        <f ca="1">DATEDIF(C12,TODAY(),"y")</f>
+        <v>32</v>
+      </c>
+      <c r="I12" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="J12" s="5">
+        <f t="shared" si="2"/>
+        <v>90</v>
+      </c>
+      <c r="N12" t="s">
+        <v>12</v>
+      </c>
+      <c r="O12" s="13">
+        <f ca="1">AVERAGEIFS($E$2:$E$29,$D$2:$D$29,N5,$H$2:$H$29,"&gt;1")</f>
+        <v>1463.1666666666667</v>
+      </c>
+      <c r="P12" s="13">
+        <f ca="1">AVERAGEIFS($E$2:$E$29,$D$2:$D$29,N5,$H$2:$H$29,"&gt;10")</f>
+        <v>1734.2</v>
+      </c>
+      <c r="Q12" s="14">
+        <f ca="1">AVERAGEIFS($E$2:$E$29,$D$2:$D$29,N5,$H$2:$H$29,"&gt;20")</f>
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="10">
+        <v>24583</v>
+      </c>
+      <c r="C13" s="10">
+        <v>36165</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="11">
+        <v>1670</v>
+      </c>
+      <c r="F13" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="G13" s="5" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Indeterminato</v>
+      </c>
+      <c r="H13" s="9">
+        <f ca="1">DATEDIF(C13,TODAY(),"y")</f>
+        <v>23</v>
+      </c>
+      <c r="I13" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="J13" s="5">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="N13" t="s">
+        <v>15</v>
+      </c>
+      <c r="O13" s="13">
+        <f t="shared" ref="O13:O15" ca="1" si="5">AVERAGEIFS($E$2:$E$29,$D$2:$D$29,N6,$H$2:$H$29,"&gt;1")</f>
+        <v>1486.2</v>
+      </c>
+      <c r="P13" s="13">
+        <f t="shared" ref="P13:P15" ca="1" si="6">AVERAGEIFS($E$2:$E$29,$D$2:$D$29,N6,$H$2:$H$29,"&gt;10")</f>
+        <v>1595.3333333333333</v>
+      </c>
+      <c r="Q13" s="14">
+        <f ca="1">AVERAGEIFS($E$2:$E$29,$D$2:$D$29,N6,$H$2:$H$29,"&gt;20")</f>
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="7">
+        <v>32894</v>
+      </c>
+      <c r="C14" s="7">
+        <v>42856</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="8">
+        <v>1340</v>
+      </c>
+      <c r="F14" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="G14" s="5" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Apprendistato</v>
+      </c>
+      <c r="H14" s="9">
+        <f ca="1">DATEDIF(C14,TODAY(),"y")</f>
+        <v>5</v>
+      </c>
+      <c r="I14" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="5">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="N14" t="s">
+        <v>18</v>
+      </c>
+      <c r="O14" s="13">
+        <f t="shared" ca="1" si="5"/>
+        <v>3478.5</v>
+      </c>
+      <c r="P14">
+        <f t="shared" ca="1" si="6"/>
+        <v>3478.5</v>
+      </c>
+      <c r="Q14" s="14">
+        <f ca="1">AVERAGEIFS($E$2:$E$29,$D$2:$D$29,N7,$H$2:$H$29,"&gt;20")</f>
+        <v>3478.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A15" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="10">
+        <v>28089</v>
+      </c>
+      <c r="C15" s="10">
+        <v>36531</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="11">
+        <v>1599</v>
+      </c>
+      <c r="F15" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="G15" s="5" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Indeterminato</v>
+      </c>
+      <c r="H15" s="9">
+        <f ca="1">DATEDIF(C15,TODAY(),"y")</f>
+        <v>22</v>
+      </c>
+      <c r="I15" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="J15" s="5">
+        <f t="shared" si="2"/>
+        <v>70</v>
+      </c>
+      <c r="N15" t="s">
+        <v>21</v>
+      </c>
+      <c r="O15" s="13">
+        <f t="shared" ca="1" si="5"/>
+        <v>2542.3333333333335</v>
+      </c>
+      <c r="P15" s="13">
+        <f t="shared" ca="1" si="6"/>
+        <v>2542.3333333333335</v>
+      </c>
+      <c r="Q15" s="14" t="e">
+        <f ca="1">AVERAGEIFS($E$2:$E$29,$D$2:$D$29,N8,$H$2:$H$29,"&gt;20")</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A16" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="10">
+        <v>34930</v>
+      </c>
+      <c r="C16" s="10">
+        <v>42374</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="11">
+        <v>1414</v>
+      </c>
+      <c r="F16" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="G16" s="5" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Apprendistato</v>
+      </c>
+      <c r="H16" s="9">
+        <f ca="1">DATEDIF(C16,TODAY(),"y")</f>
+        <v>6</v>
+      </c>
+      <c r="I16" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J16" s="5">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="10">
+        <v>31736</v>
+      </c>
+      <c r="C17" s="10">
+        <v>40548</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="11">
+        <v>1537</v>
+      </c>
+      <c r="F17" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="G17" s="5" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Apprendistato</v>
+      </c>
+      <c r="H17" s="9">
+        <f ca="1">DATEDIF(C17,TODAY(),"y")</f>
+        <v>11</v>
+      </c>
+      <c r="I17" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="J17" s="5">
+        <f t="shared" si="2"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="10">
+        <v>29106</v>
+      </c>
+      <c r="C18" s="10">
+        <v>37261</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="11">
+        <v>2152</v>
+      </c>
+      <c r="F18" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="G18" s="5" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Indeterminato</v>
+      </c>
+      <c r="H18" s="9">
+        <f ca="1">DATEDIF(C18,TODAY(),"y")</f>
+        <v>20</v>
+      </c>
+      <c r="I18" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="J18" s="5">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="7">
+        <v>34431</v>
+      </c>
+      <c r="C19" s="7">
+        <v>43831</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="8">
+        <v>1250</v>
+      </c>
+      <c r="F19" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="G19" s="5" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Apprendistato</v>
+      </c>
+      <c r="H19" s="9">
+        <f ca="1">DATEDIF(C19,TODAY(),"y")</f>
+        <v>2</v>
+      </c>
+      <c r="I19" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="5">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="7">
+        <v>33654</v>
+      </c>
+      <c r="C20" s="7">
+        <v>42826</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="8">
+        <v>1370</v>
+      </c>
+      <c r="F20" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="G20" s="5" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Apprendistato</v>
+      </c>
+      <c r="H20" s="9">
+        <f ca="1">DATEDIF(C20,TODAY(),"y")</f>
+        <v>5</v>
+      </c>
+      <c r="I20" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J20" s="5">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="7">
+        <v>32996</v>
+      </c>
+      <c r="C21" s="7">
+        <v>43252</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="8">
+        <v>1310</v>
+      </c>
+      <c r="F21" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="G21" s="5" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Apprendistato</v>
+      </c>
+      <c r="H21" s="9">
+        <f ca="1">DATEDIF(C21,TODAY(),"y")</f>
+        <v>4</v>
+      </c>
+      <c r="I21" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J21" s="5">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="7">
+        <v>36540</v>
+      </c>
+      <c r="C22" s="7">
+        <v>44086</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="8">
+        <v>1230</v>
+      </c>
+      <c r="F22" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="G22" s="5" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Stage</v>
+      </c>
+      <c r="H22" s="9">
+        <f ca="1">DATEDIF(C22,TODAY(),"y")</f>
+        <v>2</v>
+      </c>
+      <c r="I22" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J22" s="5">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="10">
+        <v>30415</v>
+      </c>
+      <c r="C23" s="10">
+        <v>39453</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23" s="11">
+        <v>2768</v>
+      </c>
+      <c r="F23" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="G23" s="5" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Indeterminato</v>
+      </c>
+      <c r="H23" s="9">
+        <f ca="1">DATEDIF(C23,TODAY(),"y")</f>
+        <v>14</v>
+      </c>
+      <c r="I23" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="J23" s="5">
+        <f t="shared" si="2"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="10">
+        <v>30862</v>
+      </c>
+      <c r="C24" s="10">
+        <v>39087</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24" s="11">
+        <v>2275</v>
+      </c>
+      <c r="F24" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="G24" s="5" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Indeterminato</v>
+      </c>
+      <c r="H24" s="9">
+        <f ca="1">DATEDIF(C24,TODAY(),"y")</f>
+        <v>15</v>
+      </c>
+      <c r="I24" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="J24" s="5">
+        <f t="shared" si="2"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="10">
+        <v>34362</v>
+      </c>
+      <c r="C25" s="10">
+        <v>42740</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="11">
+        <v>1365</v>
+      </c>
+      <c r="F25" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="G25" s="5" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Apprendistato</v>
+      </c>
+      <c r="H25" s="9">
+        <f ca="1">DATEDIF(C25,TODAY(),"y")</f>
+        <v>5</v>
+      </c>
+      <c r="I25" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J25" s="5">
+        <f t="shared" si="2"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" s="10">
+        <v>31418</v>
+      </c>
+      <c r="C26" s="10">
+        <v>41279</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" s="11">
+        <v>1414</v>
+      </c>
+      <c r="F26" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="G26" s="5" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Indeterminato</v>
+      </c>
+      <c r="H26" s="9">
+        <f ca="1">DATEDIF(C26,TODAY(),"y")</f>
+        <v>9</v>
+      </c>
+      <c r="I26" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J26" s="5">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" s="10">
+        <v>34033</v>
+      </c>
+      <c r="C27" s="10">
+        <v>41795</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" s="11">
+        <v>1414</v>
+      </c>
+      <c r="F27" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="G27" s="5" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Apprendistato</v>
+      </c>
+      <c r="H27" s="9">
+        <f ca="1">DATEDIF(C27,TODAY(),"y")</f>
+        <v>8</v>
+      </c>
+      <c r="I27" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J27" s="5">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28" s="10">
+        <v>32359</v>
+      </c>
+      <c r="C28" s="10">
+        <v>40792</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" s="11">
+        <v>1476</v>
+      </c>
+      <c r="F28" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="G28" s="5" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Apprendistato</v>
+      </c>
+      <c r="H28" s="9">
+        <f ca="1">DATEDIF(C28,TODAY(),"y")</f>
+        <v>11</v>
+      </c>
+      <c r="I28" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="J28" s="5">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29" s="7">
+        <v>34935</v>
+      </c>
+      <c r="C29" s="7">
+        <v>43132</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" s="8">
+        <v>1270</v>
+      </c>
+      <c r="F29" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="G29" s="5" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Apprendistato</v>
+      </c>
+      <c r="H29" s="9">
+        <f ca="1">DATEDIF(C29,TODAY(),"y")</f>
+        <v>4</v>
+      </c>
+      <c r="I29" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J29" s="5">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDF55E32-BDFD-1E46-BA4D-4610A780A95A}">
+  <dimension ref="A1:I29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="16.5" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="I1" s="22" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="20">
+        <v>31171</v>
+      </c>
+      <c r="C2" s="20">
+        <v>41796</v>
+      </c>
+      <c r="E2">
+        <f ca="1">NETWORKDAYS(C2,TODAY())</f>
+        <v>2183</v>
+      </c>
+      <c r="G2">
+        <f>YEAR(C2)</f>
+        <v>2014</v>
+      </c>
+      <c r="H2">
+        <f>MONTH(C2)</f>
+        <v>6</v>
+      </c>
+      <c r="I2">
+        <f>DAY(C2)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="21">
+        <v>35776</v>
+      </c>
+      <c r="C3" s="21">
+        <v>43466</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E29" ca="1" si="0">NETWORKDAYS(C3,TODAY())</f>
+        <v>991</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G29" si="1">YEAR(C3)</f>
+        <v>2019</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H29" si="2">MONTH(C3)</f>
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I29" si="3">DAY(C3)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="20">
+        <v>30674</v>
+      </c>
+      <c r="C4" s="20">
+        <v>39453</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ca="1" si="0"/>
+        <v>3857</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="1"/>
+        <v>2008</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="21">
+        <v>32906</v>
+      </c>
+      <c r="C5" s="21">
+        <v>43831</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ca="1" si="0"/>
+        <v>730</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>2020</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="20">
+        <v>20611</v>
+      </c>
+      <c r="C6" s="20">
+        <v>31872</v>
+      </c>
+      <c r="E6">
+        <f t="shared" ca="1" si="0"/>
+        <v>9272</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>1987</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="20">
+        <v>31053</v>
+      </c>
+      <c r="C7" s="20">
+        <v>40303</v>
+      </c>
+      <c r="E7">
+        <f t="shared" ca="1" si="0"/>
+        <v>3250</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>2010</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="20">
+        <v>33657</v>
+      </c>
+      <c r="C8" s="20">
+        <v>40548</v>
+      </c>
+      <c r="E8">
+        <f t="shared" ca="1" si="0"/>
+        <v>3075</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>2011</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="20">
+        <v>34399</v>
+      </c>
+      <c r="C9" s="20">
+        <v>43022</v>
+      </c>
+      <c r="E9">
+        <f t="shared" ca="1" si="0"/>
+        <v>1307</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>2017</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="20">
+        <v>22207</v>
+      </c>
+      <c r="C10" s="20">
+        <v>35313</v>
+      </c>
+      <c r="E10">
+        <f t="shared" ca="1" si="0"/>
+        <v>6814</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>1996</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="20">
+        <v>32868</v>
+      </c>
+      <c r="C11" s="20">
+        <v>41279</v>
+      </c>
+      <c r="E11">
+        <f t="shared" ca="1" si="0"/>
+        <v>2552</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>2013</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="20">
+        <v>25264</v>
+      </c>
+      <c r="C12" s="20">
+        <v>32999</v>
+      </c>
+      <c r="E12">
+        <f t="shared" ca="1" si="0"/>
+        <v>8467</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>1990</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="20">
+        <v>24583</v>
+      </c>
+      <c r="C13" s="20">
+        <v>36165</v>
+      </c>
+      <c r="E13">
+        <f t="shared" ca="1" si="0"/>
+        <v>6206</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>1999</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="21">
+        <v>32894</v>
+      </c>
+      <c r="C14" s="21">
+        <v>42856</v>
+      </c>
+      <c r="E14">
+        <f t="shared" ca="1" si="0"/>
+        <v>1427</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>2017</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="20">
+        <v>28089</v>
+      </c>
+      <c r="C15" s="20">
+        <v>36531</v>
+      </c>
+      <c r="E15">
+        <f t="shared" ca="1" si="0"/>
+        <v>5944</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="20">
+        <v>34930</v>
+      </c>
+      <c r="C16" s="20">
+        <v>42374</v>
+      </c>
+      <c r="E16">
+        <f t="shared" ca="1" si="0"/>
+        <v>1771</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>2016</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="20">
+        <v>31736</v>
+      </c>
+      <c r="C17" s="20">
+        <v>40548</v>
+      </c>
+      <c r="E17">
+        <f t="shared" ca="1" si="0"/>
+        <v>3075</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>2011</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="20">
+        <v>29106</v>
+      </c>
+      <c r="C18" s="20">
+        <v>37261</v>
+      </c>
+      <c r="E18">
+        <f t="shared" ca="1" si="0"/>
+        <v>5422</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="1"/>
+        <v>2002</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="21">
+        <v>34431</v>
+      </c>
+      <c r="C19" s="21">
+        <v>43831</v>
+      </c>
+      <c r="E19">
+        <f t="shared" ca="1" si="0"/>
+        <v>730</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="1"/>
+        <v>2020</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="21">
+        <v>33654</v>
+      </c>
+      <c r="C20" s="21">
+        <v>42826</v>
+      </c>
+      <c r="E20">
+        <f t="shared" ca="1" si="0"/>
+        <v>1447</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="1"/>
+        <v>2017</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="21">
+        <v>32996</v>
+      </c>
+      <c r="C21" s="21">
+        <v>43252</v>
+      </c>
+      <c r="E21">
+        <f t="shared" ca="1" si="0"/>
+        <v>1143</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="1"/>
+        <v>2018</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="21">
+        <v>36540</v>
+      </c>
+      <c r="C22" s="21">
+        <v>44086</v>
+      </c>
+      <c r="E22">
+        <f t="shared" ca="1" si="0"/>
+        <v>547</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="1"/>
+        <v>2020</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="20">
+        <v>30415</v>
+      </c>
+      <c r="C23" s="20">
+        <v>39453</v>
+      </c>
+      <c r="E23">
+        <f t="shared" ca="1" si="0"/>
+        <v>3857</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="1"/>
+        <v>2008</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="20">
+        <v>30862</v>
+      </c>
+      <c r="C24" s="20">
+        <v>39087</v>
+      </c>
+      <c r="E24">
+        <f t="shared" ca="1" si="0"/>
+        <v>4118</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="1"/>
+        <v>2007</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="20">
+        <v>34362</v>
+      </c>
+      <c r="C25" s="20">
+        <v>42740</v>
+      </c>
+      <c r="E25">
+        <f t="shared" ca="1" si="0"/>
+        <v>1509</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="1"/>
+        <v>2017</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" s="20">
+        <v>31418</v>
+      </c>
+      <c r="C26" s="20">
+        <v>41279</v>
+      </c>
+      <c r="E26">
+        <f t="shared" ca="1" si="0"/>
+        <v>2552</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="1"/>
+        <v>2013</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" s="20">
+        <v>34033</v>
+      </c>
+      <c r="C27" s="20">
+        <v>41795</v>
+      </c>
+      <c r="E27">
+        <f t="shared" ca="1" si="0"/>
+        <v>2184</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="1"/>
+        <v>2014</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28" s="20">
+        <v>32359</v>
+      </c>
+      <c r="C28" s="20">
+        <v>40792</v>
+      </c>
+      <c r="E28">
+        <f t="shared" ca="1" si="0"/>
+        <v>2901</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="1"/>
+        <v>2011</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29" s="21">
+        <v>34935</v>
+      </c>
+      <c r="C29" s="21">
+        <v>43132</v>
+      </c>
+      <c r="E29">
+        <f t="shared" ca="1" si="0"/>
+        <v>1229</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="1"/>
+        <v>2018</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FF130D7-9FA7-FC4B-A5E2-91EE8C9F667E}">
+  <dimension ref="A6:B33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" s="15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="B26" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B29" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B30" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B31" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32" s="15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B33" s="15">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId4"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F93F8FB-0C62-0E4A-B7BF-54C0DA41E74C}">
+  <dimension ref="A27:C34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="16.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B29" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30" s="15">
+        <v>5</v>
+      </c>
+      <c r="C30" s="23">
+        <v>1486.2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B31" s="15">
+        <v>3</v>
+      </c>
+      <c r="C31" s="23">
+        <v>2542.3333333333335</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B32" s="15">
+        <v>2</v>
+      </c>
+      <c r="C32" s="23">
+        <v>3478.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B33" s="15">
+        <v>18</v>
+      </c>
+      <c r="C33" s="23">
+        <v>1463.1666666666667</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B34" s="15">
+        <v>28</v>
+      </c>
+      <c r="C34" s="23">
+        <v>1726.8571428571429</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{A8765BA9-456A-4dab-B4F3-ACF838C121DE}">
+      <x14:slicerList>
+        <x14:slicer r:id="rId3"/>
+      </x14:slicerList>
+    </ext>
+  </extLst>
+</worksheet>
 </file>